--- a/data/tmp/database all.xlsx
+++ b/data/tmp/database all.xlsx
@@ -543,16 +543,12 @@
       <protection hidden="false" locked="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -580,7 +576,7 @@
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Normal 2" xfId="20"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Normal 2" xfId="20"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -592,8 +588,8 @@
   </sheetPr>
   <dimension ref="A1:P291"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A115" view="normal" windowProtection="false" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100">
-      <selection activeCell="A156" activeCellId="0" pane="topLeft" sqref="A156"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A222" view="normal" windowProtection="false" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100">
+      <selection activeCell="A249" activeCellId="0" pane="topLeft" sqref="A249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -626,7 +622,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -638,7 +634,7 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -653,13 +649,13 @@
       <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -7177,3763 +7173,3949 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="157">
-      <c r="A157" s="4" t="s">
+      <c r="A157" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B157" s="4" t="s">
+      <c r="B157" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C157" s="4" t="s">
+      <c r="C157" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D157" s="4" t="s">
+      <c r="D157" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E157" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="F157" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G157" s="4" t="n">
+      <c r="E157" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="F157" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G157" s="3" t="n">
         <v>18</v>
       </c>
       <c r="H157" s="1"/>
-      <c r="I157" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J157" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K157" s="4" t="n">
+      <c r="I157" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J157" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K157" s="3" t="n">
         <v>16</v>
       </c>
       <c r="L157" s="1"/>
-      <c r="M157" s="4" t="s">
+      <c r="M157" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
-      <c r="P157" s="1"/>
+      <c r="P157" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="158">
-      <c r="A158" s="4" t="s">
+      <c r="A158" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="B158" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C158" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D158" s="4" t="s">
+      <c r="C158" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D158" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E158" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="F158" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G158" s="4" t="n">
+      <c r="E158" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="F158" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G158" s="3" t="n">
         <v>16</v>
       </c>
       <c r="H158" s="1"/>
-      <c r="I158" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J158" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K158" s="4" t="n">
+      <c r="I158" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J158" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K158" s="3" t="n">
         <v>14</v>
       </c>
       <c r="L158" s="1"/>
-      <c r="M158" s="4" t="s">
+      <c r="M158" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
-      <c r="P158" s="1"/>
+      <c r="P158" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="159">
-      <c r="A159" s="4" t="s">
+      <c r="A159" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B159" s="4" t="s">
+      <c r="B159" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C159" s="4" t="s">
+      <c r="C159" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D159" s="4" t="s">
+      <c r="D159" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E159" s="4" t="n">
+      <c r="E159" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="F159" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G159" s="4" t="n">
+      <c r="F159" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G159" s="3" t="n">
         <v>17</v>
       </c>
       <c r="H159" s="1"/>
-      <c r="I159" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J159" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K159" s="4" t="n">
+      <c r="I159" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J159" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K159" s="3" t="n">
         <v>14</v>
       </c>
       <c r="L159" s="1"/>
-      <c r="M159" s="4" t="s">
+      <c r="M159" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
-      <c r="P159" s="1"/>
+      <c r="P159" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="160">
-      <c r="A160" s="4" t="s">
+      <c r="A160" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B160" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C160" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D160" s="4" t="s">
+      <c r="C160" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D160" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E160" s="4" t="n">
+      <c r="E160" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="F160" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G160" s="4" t="n">
+      <c r="F160" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G160" s="3" t="n">
         <v>15</v>
       </c>
       <c r="H160" s="1"/>
-      <c r="I160" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J160" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K160" s="4" t="n">
+      <c r="I160" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J160" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K160" s="3" t="n">
         <v>12</v>
       </c>
       <c r="L160" s="1"/>
-      <c r="M160" s="4" t="s">
+      <c r="M160" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
-      <c r="P160" s="1"/>
+      <c r="P160" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="161">
-      <c r="A161" s="4" t="s">
+      <c r="A161" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B161" s="4" t="s">
+      <c r="B161" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="C161" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D161" s="4" t="s">
+      <c r="D161" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E161" s="4" t="n">
+      <c r="E161" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="F161" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G161" s="4" t="n">
+      <c r="F161" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G161" s="3" t="n">
         <v>14</v>
       </c>
       <c r="H161" s="1"/>
-      <c r="I161" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J161" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K161" s="4" t="n">
+      <c r="I161" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J161" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K161" s="3" t="n">
         <v>12</v>
       </c>
       <c r="L161" s="1"/>
-      <c r="M161" s="4" t="s">
+      <c r="M161" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
-      <c r="P161" s="1"/>
+      <c r="P161" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="162">
-      <c r="A162" s="4" t="s">
+      <c r="A162" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="B162" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C162" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D162" s="4" t="s">
+      <c r="C162" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D162" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E162" s="4" t="n">
+      <c r="E162" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="F162" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G162" s="4" t="n">
+      <c r="F162" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G162" s="3" t="n">
         <v>12</v>
       </c>
       <c r="H162" s="1"/>
-      <c r="I162" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J162" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K162" s="4" t="n">
+      <c r="I162" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J162" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K162" s="3" t="n">
         <v>10</v>
       </c>
       <c r="L162" s="1"/>
-      <c r="M162" s="4" t="s">
+      <c r="M162" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
-      <c r="P162" s="1"/>
+      <c r="P162" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="163">
-      <c r="A163" s="4" t="s">
+      <c r="A163" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="B163" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C163" s="4" t="s">
+      <c r="C163" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D163" s="4" t="s">
+      <c r="D163" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E163" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="F163" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G163" s="4" t="n">
+      <c r="E163" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="F163" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G163" s="3" t="n">
         <v>12</v>
       </c>
       <c r="H163" s="1"/>
-      <c r="I163" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J163" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K163" s="4" t="n">
+      <c r="I163" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J163" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K163" s="3" t="n">
         <v>12</v>
       </c>
       <c r="L163" s="1"/>
-      <c r="M163" s="4" t="s">
+      <c r="M163" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
-      <c r="P163" s="1"/>
+      <c r="P163" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="164">
-      <c r="A164" s="4" t="s">
+      <c r="A164" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="B164" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C164" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D164" s="4" t="s">
+      <c r="C164" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D164" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E164" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="F164" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G164" s="4" t="n">
+      <c r="E164" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="F164" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G164" s="3" t="n">
         <v>10</v>
       </c>
       <c r="H164" s="1"/>
-      <c r="I164" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J164" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K164" s="4" t="n">
+      <c r="I164" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J164" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K164" s="3" t="n">
         <v>10</v>
       </c>
       <c r="L164" s="1"/>
-      <c r="M164" s="4" t="s">
+      <c r="M164" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
-      <c r="P164" s="1"/>
+      <c r="P164" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="165">
-      <c r="A165" s="4" t="s">
+      <c r="A165" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="B165" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C165" s="4" t="s">
+      <c r="C165" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D165" s="4" t="s">
+      <c r="D165" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E165" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="F165" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G165" s="4" t="n">
+      <c r="E165" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="F165" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G165" s="3" t="n">
         <v>14</v>
       </c>
       <c r="H165" s="1"/>
-      <c r="I165" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J165" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K165" s="4" t="n">
+      <c r="I165" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J165" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K165" s="3" t="n">
         <v>14</v>
       </c>
       <c r="L165" s="1"/>
-      <c r="M165" s="4" t="s">
+      <c r="M165" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
-      <c r="P165" s="1"/>
+      <c r="P165" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="166">
-      <c r="A166" s="4" t="s">
+      <c r="A166" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="B166" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C166" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D166" s="4" t="s">
+      <c r="C166" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D166" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E166" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="F166" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G166" s="4" t="n">
+      <c r="E166" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="F166" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G166" s="3" t="n">
         <v>12</v>
       </c>
       <c r="H166" s="1"/>
-      <c r="I166" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J166" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K166" s="4" t="n">
+      <c r="I166" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J166" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K166" s="3" t="n">
         <v>12</v>
       </c>
       <c r="L166" s="1"/>
-      <c r="M166" s="4" t="s">
+      <c r="M166" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
-      <c r="P166" s="1"/>
+      <c r="P166" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="167">
-      <c r="A167" s="4" t="s">
+      <c r="A167" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B167" s="4" t="s">
+      <c r="B167" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C167" s="4" t="s">
+      <c r="C167" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D167" s="4" t="s">
+      <c r="D167" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E167" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="F167" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G167" s="4" t="n">
+      <c r="E167" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="F167" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G167" s="3" t="n">
         <v>14</v>
       </c>
       <c r="H167" s="1"/>
-      <c r="I167" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J167" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K167" s="4" t="n">
+      <c r="I167" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J167" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K167" s="3" t="n">
         <v>14</v>
       </c>
       <c r="L167" s="1"/>
-      <c r="M167" s="4" t="s">
+      <c r="M167" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
-      <c r="P167" s="1"/>
+      <c r="P167" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="168">
-      <c r="A168" s="4" t="s">
+      <c r="A168" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B168" s="4" t="s">
+      <c r="B168" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C168" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D168" s="4" t="s">
+      <c r="C168" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D168" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E168" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="F168" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G168" s="4" t="n">
+      <c r="E168" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="F168" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G168" s="3" t="n">
         <v>12</v>
       </c>
       <c r="H168" s="1"/>
-      <c r="I168" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J168" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K168" s="4" t="n">
+      <c r="I168" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J168" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K168" s="3" t="n">
         <v>12</v>
       </c>
       <c r="L168" s="1"/>
-      <c r="M168" s="4" t="s">
+      <c r="M168" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
-      <c r="P168" s="1"/>
+      <c r="P168" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="169">
-      <c r="A169" s="4" t="s">
+      <c r="A169" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="B169" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C169" s="4" t="s">
+      <c r="C169" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D169" s="4" t="s">
+      <c r="D169" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E169" s="4" t="n">
+      <c r="E169" s="3" t="n">
         <v>79</v>
       </c>
-      <c r="F169" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G169" s="4" t="n">
+      <c r="F169" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G169" s="3" t="n">
         <v>14</v>
       </c>
       <c r="H169" s="1"/>
-      <c r="I169" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J169" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K169" s="4" t="n">
+      <c r="I169" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J169" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K169" s="3" t="n">
         <v>14</v>
       </c>
       <c r="L169" s="1"/>
-      <c r="M169" s="4" t="s">
+      <c r="M169" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
-      <c r="P169" s="1"/>
+      <c r="P169" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="170">
-      <c r="A170" s="4" t="s">
+      <c r="A170" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="B170" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C170" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D170" s="4" t="s">
+      <c r="C170" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D170" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E170" s="4" t="n">
+      <c r="E170" s="3" t="n">
         <v>79</v>
       </c>
-      <c r="F170" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G170" s="4" t="n">
+      <c r="F170" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G170" s="3" t="n">
         <v>18</v>
       </c>
       <c r="H170" s="1"/>
-      <c r="I170" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J170" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K170" s="4" t="n">
+      <c r="I170" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J170" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K170" s="3" t="n">
         <v>10</v>
       </c>
       <c r="L170" s="1"/>
-      <c r="M170" s="4" t="s">
+      <c r="M170" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
-      <c r="P170" s="1"/>
+      <c r="P170" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="171">
-      <c r="A171" s="4" t="s">
+      <c r="A171" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B171" s="4" t="s">
+      <c r="B171" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C171" s="4" t="s">
+      <c r="C171" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D171" s="4" t="s">
+      <c r="D171" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E171" s="4" t="n">
+      <c r="E171" s="3" t="n">
         <v>99</v>
       </c>
-      <c r="F171" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G171" s="4" t="n">
+      <c r="F171" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G171" s="3" t="n">
         <v>17</v>
       </c>
       <c r="H171" s="1"/>
-      <c r="I171" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J171" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K171" s="4" t="n">
+      <c r="I171" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J171" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K171" s="3" t="n">
         <v>16</v>
       </c>
       <c r="L171" s="1"/>
-      <c r="M171" s="4" t="s">
+      <c r="M171" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
-      <c r="P171" s="1"/>
+      <c r="P171" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="172">
-      <c r="A172" s="4" t="s">
+      <c r="A172" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="B172" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C172" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D172" s="4" t="s">
+      <c r="C172" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D172" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E172" s="4" t="n">
+      <c r="E172" s="3" t="n">
         <v>99</v>
       </c>
-      <c r="F172" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G172" s="4" t="n">
+      <c r="F172" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G172" s="3" t="n">
         <v>15</v>
       </c>
       <c r="H172" s="1"/>
-      <c r="I172" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J172" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K172" s="4" t="n">
+      <c r="I172" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J172" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K172" s="3" t="n">
         <v>14</v>
       </c>
       <c r="L172" s="1"/>
-      <c r="M172" s="4" t="s">
+      <c r="M172" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
-      <c r="P172" s="1"/>
+      <c r="P172" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="173">
-      <c r="A173" s="4" t="s">
+      <c r="A173" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B173" s="4" t="s">
+      <c r="B173" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C173" s="4" t="s">
+      <c r="C173" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D173" s="4" t="s">
+      <c r="D173" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E173" s="4" t="n">
+      <c r="E173" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="F173" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G173" s="4" t="n">
+      <c r="F173" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G173" s="3" t="n">
         <v>10</v>
       </c>
       <c r="H173" s="1"/>
-      <c r="I173" s="4" t="n">
+      <c r="I173" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="J173" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K173" s="4" t="n">
+      <c r="J173" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K173" s="3" t="n">
         <v>10</v>
       </c>
       <c r="L173" s="1"/>
-      <c r="M173" s="4" t="s">
+      <c r="M173" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
-      <c r="P173" s="1"/>
+      <c r="P173" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="174">
-      <c r="A174" s="4" t="s">
+      <c r="A174" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="B174" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C174" s="4" t="s">
+      <c r="C174" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D174" s="4" t="s">
+      <c r="D174" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E174" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="F174" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G174" s="4" t="n">
+      <c r="E174" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="F174" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G174" s="3" t="n">
         <v>14</v>
       </c>
       <c r="H174" s="1"/>
-      <c r="I174" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J174" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K174" s="4" t="n">
+      <c r="I174" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J174" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K174" s="3" t="n">
         <v>14</v>
       </c>
       <c r="L174" s="1"/>
-      <c r="M174" s="4" t="s">
+      <c r="M174" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
-      <c r="P174" s="1"/>
+      <c r="P174" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="175">
-      <c r="A175" s="4" t="s">
+      <c r="A175" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B175" s="4" t="s">
+      <c r="B175" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C175" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D175" s="4" t="s">
+      <c r="C175" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D175" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E175" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="F175" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G175" s="4" t="n">
+      <c r="E175" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="F175" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G175" s="3" t="n">
         <v>12</v>
       </c>
       <c r="H175" s="1"/>
-      <c r="I175" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J175" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K175" s="4" t="n">
+      <c r="I175" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J175" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K175" s="3" t="n">
         <v>12</v>
       </c>
       <c r="L175" s="1"/>
-      <c r="M175" s="4" t="s">
+      <c r="M175" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
-      <c r="P175" s="1"/>
+      <c r="P175" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="176">
-      <c r="A176" s="4" t="s">
+      <c r="A176" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B176" s="4" t="s">
+      <c r="B176" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C176" s="4" t="s">
+      <c r="C176" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D176" s="4" t="s">
+      <c r="D176" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E176" s="4" t="n">
+      <c r="E176" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="F176" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G176" s="4" t="n">
+      <c r="F176" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G176" s="3" t="n">
         <v>14</v>
       </c>
       <c r="H176" s="1"/>
-      <c r="I176" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J176" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K176" s="4" t="n">
+      <c r="I176" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J176" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K176" s="3" t="n">
         <v>14</v>
       </c>
       <c r="L176" s="1"/>
-      <c r="M176" s="4" t="s">
+      <c r="M176" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
-      <c r="P176" s="1"/>
+      <c r="P176" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="177">
-      <c r="A177" s="4" t="s">
+      <c r="A177" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B177" s="4" t="s">
+      <c r="B177" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C177" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D177" s="4" t="s">
+      <c r="C177" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D177" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E177" s="4" t="n">
+      <c r="E177" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="F177" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G177" s="4" t="n">
+      <c r="F177" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G177" s="3" t="n">
         <v>16</v>
       </c>
       <c r="H177" s="1"/>
-      <c r="I177" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J177" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K177" s="4" t="n">
+      <c r="I177" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J177" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K177" s="3" t="n">
         <v>12</v>
       </c>
       <c r="L177" s="1"/>
-      <c r="M177" s="4" t="s">
+      <c r="M177" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
-      <c r="P177" s="1"/>
+      <c r="P177" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="178">
-      <c r="A178" s="4" t="s">
+      <c r="A178" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="B178" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C178" s="4" t="s">
+      <c r="C178" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D178" s="4" t="s">
+      <c r="D178" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E178" s="4" t="n">
+      <c r="E178" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="F178" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G178" s="4" t="n">
+      <c r="F178" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G178" s="3" t="n">
         <v>16</v>
       </c>
       <c r="H178" s="1"/>
-      <c r="I178" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J178" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K178" s="4" t="n">
+      <c r="I178" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J178" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K178" s="3" t="n">
         <v>14</v>
       </c>
       <c r="L178" s="1"/>
-      <c r="M178" s="4" t="s">
+      <c r="M178" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
-      <c r="P178" s="1"/>
+      <c r="P178" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="179">
-      <c r="A179" s="4" t="s">
+      <c r="A179" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B179" s="4" t="s">
+      <c r="B179" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C179" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D179" s="4" t="s">
+      <c r="C179" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D179" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E179" s="4" t="n">
+      <c r="E179" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="F179" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G179" s="4" t="n">
+      <c r="F179" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G179" s="3" t="n">
         <v>14</v>
       </c>
       <c r="H179" s="1"/>
-      <c r="I179" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J179" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K179" s="4" t="n">
+      <c r="I179" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J179" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K179" s="3" t="n">
         <v>12</v>
       </c>
       <c r="L179" s="1"/>
-      <c r="M179" s="4" t="s">
+      <c r="M179" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
-      <c r="P179" s="1"/>
+      <c r="P179" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="180">
-      <c r="A180" s="4" t="s">
+      <c r="A180" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B180" s="4" t="s">
+      <c r="B180" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C180" s="4" t="s">
+      <c r="C180" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D180" s="4" t="s">
+      <c r="D180" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E180" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="F180" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G180" s="4" t="n">
+      <c r="E180" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="F180" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G180" s="3" t="n">
         <v>14</v>
       </c>
       <c r="H180" s="1"/>
-      <c r="I180" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J180" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K180" s="4" t="n">
+      <c r="I180" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J180" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K180" s="3" t="n">
         <v>14</v>
       </c>
       <c r="L180" s="1"/>
-      <c r="M180" s="4" t="s">
+      <c r="M180" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
-      <c r="P180" s="1"/>
+      <c r="P180" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="181">
-      <c r="A181" s="4" t="s">
+      <c r="A181" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B181" s="4" t="s">
+      <c r="B181" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C181" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D181" s="4" t="s">
+      <c r="C181" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D181" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E181" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="F181" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G181" s="4" t="n">
+      <c r="E181" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="F181" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G181" s="3" t="n">
         <v>12</v>
       </c>
       <c r="H181" s="1"/>
-      <c r="I181" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J181" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K181" s="4" t="n">
+      <c r="I181" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J181" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K181" s="3" t="n">
         <v>12</v>
       </c>
       <c r="L181" s="1"/>
-      <c r="M181" s="4" t="s">
+      <c r="M181" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
-      <c r="P181" s="1"/>
+      <c r="P181" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="182">
-      <c r="A182" s="4" t="s">
+      <c r="A182" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="B182" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C182" s="4" t="s">
+      <c r="C182" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D182" s="4" t="s">
+      <c r="D182" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E182" s="4" t="n">
+      <c r="E182" s="3" t="n">
         <v>69</v>
       </c>
-      <c r="F182" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G182" s="4" t="n">
+      <c r="F182" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G182" s="3" t="n">
         <v>20</v>
       </c>
       <c r="H182" s="1"/>
-      <c r="I182" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J182" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K182" s="4" t="n">
+      <c r="I182" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J182" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K182" s="3" t="n">
         <v>16</v>
       </c>
       <c r="L182" s="1"/>
-      <c r="M182" s="4" t="s">
+      <c r="M182" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
-      <c r="P182" s="1"/>
+      <c r="P182" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="183">
-      <c r="A183" s="4" t="s">
+      <c r="A183" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B183" s="4" t="s">
+      <c r="B183" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C183" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D183" s="4" t="s">
+      <c r="C183" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D183" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E183" s="4" t="n">
+      <c r="E183" s="3" t="n">
         <v>69</v>
       </c>
-      <c r="F183" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G183" s="4" t="n">
+      <c r="F183" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G183" s="3" t="n">
         <v>19</v>
       </c>
       <c r="H183" s="1"/>
-      <c r="I183" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J183" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K183" s="4" t="n">
+      <c r="I183" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J183" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K183" s="3" t="n">
         <v>15</v>
       </c>
       <c r="L183" s="1"/>
-      <c r="M183" s="4" t="s">
+      <c r="M183" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
-      <c r="P183" s="1"/>
+      <c r="P183" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="184">
-      <c r="A184" s="4" t="s">
+      <c r="A184" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B184" s="4" t="s">
+      <c r="B184" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C184" s="4" t="s">
+      <c r="C184" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D184" s="4" t="s">
+      <c r="D184" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E184" s="4" t="n">
+      <c r="E184" s="3" t="n">
         <v>350</v>
       </c>
-      <c r="F184" s="4" t="n">
+      <c r="F184" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="G184" s="4" t="n">
+      <c r="G184" s="3" t="n">
         <v>22.5</v>
       </c>
       <c r="H184" s="1"/>
-      <c r="I184" s="4" t="n">
+      <c r="I184" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="J184" s="4" t="n">
+      <c r="J184" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K184" s="4" t="n">
+      <c r="K184" s="3" t="n">
         <v>18</v>
       </c>
       <c r="L184" s="1"/>
-      <c r="M184" s="4" t="s">
+      <c r="M184" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
-      <c r="P184" s="1"/>
+      <c r="P184" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="185">
-      <c r="A185" s="4" t="s">
+      <c r="A185" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B185" s="4" t="s">
+      <c r="B185" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C185" s="4" t="s">
+      <c r="C185" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D185" s="4" t="s">
+      <c r="D185" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E185" s="4" t="n">
+      <c r="E185" s="3" t="n">
         <v>69</v>
       </c>
-      <c r="F185" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G185" s="4" t="n">
+      <c r="F185" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G185" s="3" t="n">
         <v>20</v>
       </c>
       <c r="H185" s="1"/>
-      <c r="I185" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J185" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K185" s="4" t="n">
+      <c r="I185" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J185" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K185" s="3" t="n">
         <v>16</v>
       </c>
       <c r="L185" s="1"/>
-      <c r="M185" s="4" t="s">
+      <c r="M185" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
-      <c r="P185" s="1"/>
+      <c r="P185" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="186">
-      <c r="A186" s="4" t="s">
+      <c r="A186" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B186" s="4" t="s">
+      <c r="B186" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C186" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D186" s="4" t="s">
+      <c r="C186" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D186" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E186" s="4" t="n">
+      <c r="E186" s="3" t="n">
         <v>69</v>
       </c>
-      <c r="F186" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G186" s="4" t="n">
+      <c r="F186" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G186" s="3" t="n">
         <v>19</v>
       </c>
       <c r="H186" s="1"/>
-      <c r="I186" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J186" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K186" s="4" t="n">
+      <c r="I186" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J186" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K186" s="3" t="n">
         <v>15</v>
       </c>
       <c r="L186" s="1"/>
-      <c r="M186" s="4" t="s">
+      <c r="M186" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
-      <c r="P186" s="1"/>
+      <c r="P186" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="187">
-      <c r="A187" s="4" t="s">
+      <c r="A187" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B187" s="4" t="s">
+      <c r="B187" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C187" s="4" t="s">
+      <c r="C187" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D187" s="4" t="s">
+      <c r="D187" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E187" s="4" t="n">
+      <c r="E187" s="3" t="n">
         <v>350</v>
       </c>
-      <c r="F187" s="4" t="n">
+      <c r="F187" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="G187" s="4" t="n">
+      <c r="G187" s="3" t="n">
         <v>22.5</v>
       </c>
       <c r="H187" s="1"/>
-      <c r="I187" s="4" t="n">
+      <c r="I187" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="J187" s="4" t="n">
+      <c r="J187" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K187" s="4" t="n">
+      <c r="K187" s="3" t="n">
         <v>18</v>
       </c>
       <c r="L187" s="1"/>
-      <c r="M187" s="4" t="s">
+      <c r="M187" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
-      <c r="P187" s="1"/>
+      <c r="P187" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="188">
-      <c r="A188" s="4" t="s">
+      <c r="A188" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B188" s="4" t="s">
+      <c r="B188" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C188" s="4" t="s">
+      <c r="C188" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D188" s="4" t="s">
+      <c r="D188" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E188" s="4" t="n">
+      <c r="E188" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="F188" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G188" s="4" t="n">
+      <c r="F188" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G188" s="3" t="n">
         <v>18</v>
       </c>
       <c r="H188" s="1"/>
-      <c r="I188" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J188" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K188" s="4" t="n">
+      <c r="I188" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J188" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K188" s="3" t="n">
         <v>16</v>
       </c>
       <c r="L188" s="1"/>
-      <c r="M188" s="4" t="s">
+      <c r="M188" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
-      <c r="P188" s="1"/>
+      <c r="P188" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="189">
-      <c r="A189" s="4" t="s">
+      <c r="A189" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B189" s="4" t="s">
+      <c r="B189" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C189" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D189" s="4" t="s">
+      <c r="C189" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D189" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E189" s="4" t="n">
+      <c r="E189" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="F189" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G189" s="4" t="n">
+      <c r="F189" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G189" s="3" t="n">
         <v>16</v>
       </c>
       <c r="H189" s="1"/>
-      <c r="I189" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J189" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K189" s="4" t="n">
+      <c r="I189" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J189" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K189" s="3" t="n">
         <v>14</v>
       </c>
       <c r="L189" s="1"/>
-      <c r="M189" s="4" t="s">
+      <c r="M189" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
-      <c r="P189" s="1"/>
+      <c r="P189" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="190">
-      <c r="A190" s="4" t="s">
+      <c r="A190" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B190" s="4" t="s">
+      <c r="B190" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C190" s="4" t="s">
+      <c r="C190" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D190" s="4" t="s">
+      <c r="D190" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E190" s="4" t="n">
+      <c r="E190" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="F190" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G190" s="4" t="n">
+      <c r="F190" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G190" s="3" t="n">
         <v>16</v>
       </c>
       <c r="H190" s="1"/>
-      <c r="I190" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J190" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K190" s="4" t="n">
+      <c r="I190" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J190" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K190" s="3" t="n">
         <v>14</v>
       </c>
       <c r="L190" s="1"/>
-      <c r="M190" s="4" t="s">
+      <c r="M190" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
-      <c r="P190" s="1"/>
+      <c r="P190" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="191">
-      <c r="A191" s="4" t="s">
+      <c r="A191" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B191" s="4" t="s">
+      <c r="B191" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C191" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D191" s="4" t="s">
+      <c r="C191" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D191" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E191" s="4" t="n">
+      <c r="E191" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="F191" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G191" s="4" t="n">
+      <c r="F191" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G191" s="3" t="n">
         <v>14</v>
       </c>
       <c r="H191" s="1"/>
-      <c r="I191" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J191" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K191" s="4" t="n">
+      <c r="I191" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J191" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K191" s="3" t="n">
         <v>12</v>
       </c>
       <c r="L191" s="1"/>
-      <c r="M191" s="4" t="s">
+      <c r="M191" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
-      <c r="P191" s="1"/>
+      <c r="P191" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="192">
-      <c r="A192" s="4" t="s">
+      <c r="A192" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B192" s="4" t="s">
+      <c r="B192" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C192" s="4" t="s">
+      <c r="C192" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D192" s="4" t="s">
+      <c r="D192" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E192" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="F192" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G192" s="4" t="n">
+      <c r="E192" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="F192" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G192" s="3" t="n">
         <v>17</v>
       </c>
       <c r="H192" s="1"/>
-      <c r="I192" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J192" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K192" s="4" t="n">
+      <c r="I192" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J192" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K192" s="3" t="n">
         <v>16</v>
       </c>
       <c r="L192" s="1"/>
-      <c r="M192" s="4" t="s">
+      <c r="M192" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
-      <c r="P192" s="1"/>
+      <c r="P192" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="193">
-      <c r="A193" s="4" t="s">
+      <c r="A193" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B193" s="4" t="s">
+      <c r="B193" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C193" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D193" s="4" t="s">
+      <c r="C193" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D193" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E193" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="F193" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G193" s="4" t="n">
+      <c r="E193" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="F193" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G193" s="3" t="n">
         <v>15</v>
       </c>
       <c r="H193" s="1"/>
-      <c r="I193" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J193" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K193" s="4" t="n">
+      <c r="I193" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J193" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K193" s="3" t="n">
         <v>14</v>
       </c>
       <c r="L193" s="1"/>
-      <c r="M193" s="4" t="s">
+      <c r="M193" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
-      <c r="P193" s="1"/>
+      <c r="P193" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="194">
-      <c r="A194" s="4" t="s">
+      <c r="A194" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B194" s="4" t="s">
+      <c r="B194" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C194" s="4" t="s">
+      <c r="C194" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D194" s="4" t="s">
+      <c r="D194" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E194" s="4" t="n">
+      <c r="E194" s="3" t="n">
         <v>99</v>
       </c>
-      <c r="F194" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G194" s="4" t="n">
+      <c r="F194" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G194" s="3" t="n">
         <v>18</v>
       </c>
       <c r="H194" s="1"/>
-      <c r="I194" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J194" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K194" s="4" t="n">
+      <c r="I194" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J194" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K194" s="3" t="n">
         <v>14</v>
       </c>
       <c r="L194" s="1"/>
-      <c r="M194" s="4" t="s">
+      <c r="M194" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
-      <c r="P194" s="1"/>
+      <c r="P194" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="195">
-      <c r="A195" s="4" t="s">
+      <c r="A195" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B195" s="4" t="s">
+      <c r="B195" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C195" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D195" s="4" t="s">
+      <c r="C195" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D195" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E195" s="4" t="n">
+      <c r="E195" s="3" t="n">
         <v>99</v>
       </c>
-      <c r="F195" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G195" s="4" t="n">
+      <c r="F195" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G195" s="3" t="n">
         <v>15</v>
       </c>
       <c r="H195" s="1"/>
-      <c r="I195" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J195" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K195" s="4" t="n">
+      <c r="I195" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J195" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K195" s="3" t="n">
         <v>12</v>
       </c>
       <c r="L195" s="1"/>
-      <c r="M195" s="4" t="s">
+      <c r="M195" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
-      <c r="P195" s="1"/>
+      <c r="P195" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="196">
-      <c r="A196" s="4" t="s">
+      <c r="A196" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B196" s="4" t="s">
+      <c r="B196" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C196" s="4" t="s">
+      <c r="C196" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D196" s="4" t="s">
+      <c r="D196" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E196" s="4" t="n">
+      <c r="E196" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="F196" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G196" s="4" t="n">
+      <c r="F196" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G196" s="3" t="n">
         <v>16</v>
       </c>
       <c r="H196" s="1"/>
-      <c r="I196" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J196" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K196" s="4" t="n">
+      <c r="I196" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J196" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K196" s="3" t="n">
         <v>14</v>
       </c>
       <c r="L196" s="1"/>
-      <c r="M196" s="4" t="s">
+      <c r="M196" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
-      <c r="P196" s="1"/>
+      <c r="P196" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="197">
-      <c r="A197" s="4" t="s">
+      <c r="A197" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B197" s="4" t="s">
+      <c r="B197" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C197" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D197" s="4" t="s">
+      <c r="C197" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D197" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E197" s="4" t="n">
+      <c r="E197" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="F197" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G197" s="4" t="n">
+      <c r="F197" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G197" s="3" t="n">
         <v>14</v>
       </c>
       <c r="H197" s="1"/>
-      <c r="I197" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J197" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K197" s="4" t="n">
+      <c r="I197" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J197" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K197" s="3" t="n">
         <v>12</v>
       </c>
       <c r="L197" s="1"/>
-      <c r="M197" s="4" t="s">
+      <c r="M197" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
-      <c r="P197" s="1"/>
+      <c r="P197" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="198">
-      <c r="A198" s="4" t="s">
+      <c r="A198" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B198" s="4" t="s">
+      <c r="B198" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C198" s="4" t="s">
+      <c r="C198" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D198" s="4" t="s">
+      <c r="D198" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E198" s="4" t="n">
+      <c r="E198" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="F198" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G198" s="4" t="n">
+      <c r="F198" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G198" s="3" t="n">
         <v>16</v>
       </c>
       <c r="H198" s="1"/>
-      <c r="I198" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J198" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K198" s="4" t="n">
+      <c r="I198" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J198" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K198" s="3" t="n">
         <v>14</v>
       </c>
       <c r="L198" s="1"/>
-      <c r="M198" s="4" t="s">
+      <c r="M198" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
-      <c r="P198" s="1"/>
+      <c r="P198" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="199">
-      <c r="A199" s="4" t="s">
+      <c r="A199" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B199" s="4" t="s">
+      <c r="B199" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C199" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D199" s="4" t="s">
+      <c r="C199" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D199" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E199" s="4" t="n">
+      <c r="E199" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="F199" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G199" s="4" t="n">
+      <c r="F199" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G199" s="3" t="n">
         <v>14</v>
       </c>
       <c r="H199" s="1"/>
-      <c r="I199" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J199" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K199" s="4" t="n">
+      <c r="I199" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J199" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K199" s="3" t="n">
         <v>12</v>
       </c>
       <c r="L199" s="1"/>
-      <c r="M199" s="4" t="s">
+      <c r="M199" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
-      <c r="P199" s="1"/>
+      <c r="P199" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="200">
-      <c r="A200" s="4" t="s">
+      <c r="A200" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B200" s="4" t="s">
+      <c r="B200" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C200" s="4" t="s">
+      <c r="C200" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D200" s="4" t="s">
+      <c r="D200" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E200" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="F200" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G200" s="4" t="n">
+      <c r="E200" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="F200" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G200" s="3" t="n">
         <v>12</v>
       </c>
       <c r="H200" s="1"/>
-      <c r="I200" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J200" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K200" s="4" t="n">
+      <c r="I200" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J200" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K200" s="3" t="n">
         <v>12</v>
       </c>
       <c r="L200" s="1"/>
-      <c r="M200" s="4" t="s">
+      <c r="M200" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
-      <c r="P200" s="1"/>
+      <c r="P200" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="201">
-      <c r="A201" s="4" t="s">
+      <c r="A201" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B201" s="4" t="s">
+      <c r="B201" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C201" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D201" s="4" t="s">
+      <c r="C201" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D201" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E201" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="F201" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G201" s="4" t="n">
+      <c r="E201" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="F201" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G201" s="3" t="n">
         <v>10</v>
       </c>
       <c r="H201" s="1"/>
-      <c r="I201" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J201" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K201" s="4" t="n">
+      <c r="I201" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J201" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K201" s="3" t="n">
         <v>10</v>
       </c>
       <c r="L201" s="1"/>
-      <c r="M201" s="4" t="s">
+      <c r="M201" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
-      <c r="P201" s="1"/>
+      <c r="P201" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="202">
-      <c r="A202" s="4" t="s">
+      <c r="A202" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B202" s="4" t="s">
+      <c r="B202" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C202" s="4" t="s">
+      <c r="C202" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D202" s="4" t="s">
+      <c r="D202" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E202" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="F202" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G202" s="4" t="n">
+      <c r="E202" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="F202" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G202" s="3" t="n">
         <v>14</v>
       </c>
       <c r="H202" s="1"/>
-      <c r="I202" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J202" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K202" s="4" t="n">
+      <c r="I202" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J202" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K202" s="3" t="n">
         <v>14</v>
       </c>
       <c r="L202" s="1"/>
-      <c r="M202" s="4" t="s">
+      <c r="M202" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
-      <c r="P202" s="1"/>
+      <c r="P202" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="203">
-      <c r="A203" s="4" t="s">
+      <c r="A203" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B203" s="4" t="s">
+      <c r="B203" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C203" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D203" s="4" t="s">
+      <c r="C203" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D203" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E203" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="F203" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G203" s="4" t="n">
+      <c r="E203" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="F203" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G203" s="3" t="n">
         <v>12</v>
       </c>
       <c r="H203" s="1"/>
-      <c r="I203" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J203" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K203" s="4" t="n">
+      <c r="I203" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J203" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K203" s="3" t="n">
         <v>12</v>
       </c>
       <c r="L203" s="1"/>
-      <c r="M203" s="4" t="s">
+      <c r="M203" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
-      <c r="P203" s="1"/>
+      <c r="P203" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="204">
-      <c r="A204" s="4" t="s">
+      <c r="A204" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B204" s="4" t="s">
+      <c r="B204" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C204" s="4" t="s">
+      <c r="C204" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D204" s="4" t="s">
+      <c r="D204" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E204" s="4" t="n">
+      <c r="E204" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="F204" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G204" s="4" t="n">
+      <c r="F204" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G204" s="3" t="n">
         <v>16</v>
       </c>
       <c r="H204" s="1"/>
-      <c r="I204" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J204" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K204" s="4" t="n">
+      <c r="I204" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J204" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K204" s="3" t="n">
         <v>14</v>
       </c>
       <c r="L204" s="1"/>
-      <c r="M204" s="4" t="s">
+      <c r="M204" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
-      <c r="P204" s="1"/>
+      <c r="P204" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="205">
-      <c r="A205" s="4" t="s">
+      <c r="A205" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B205" s="4" t="s">
+      <c r="B205" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C205" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D205" s="4" t="s">
+      <c r="C205" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D205" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E205" s="4" t="n">
+      <c r="E205" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="F205" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G205" s="4" t="n">
+      <c r="F205" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G205" s="3" t="n">
         <v>14</v>
       </c>
       <c r="H205" s="1"/>
-      <c r="I205" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J205" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K205" s="4" t="n">
+      <c r="I205" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J205" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K205" s="3" t="n">
         <v>12</v>
       </c>
       <c r="L205" s="1"/>
-      <c r="M205" s="4" t="s">
+      <c r="M205" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
-      <c r="P205" s="1"/>
+      <c r="P205" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="206">
-      <c r="A206" s="4" t="s">
+      <c r="A206" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B206" s="4" t="s">
+      <c r="B206" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C206" s="4" t="s">
+      <c r="C206" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D206" s="4" t="s">
+      <c r="D206" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E206" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="F206" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G206" s="4" t="n">
+      <c r="E206" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="F206" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G206" s="3" t="n">
         <v>14</v>
       </c>
       <c r="H206" s="1"/>
-      <c r="I206" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J206" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K206" s="4" t="n">
+      <c r="I206" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J206" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K206" s="3" t="n">
         <v>12</v>
       </c>
       <c r="L206" s="1"/>
-      <c r="M206" s="4" t="s">
+      <c r="M206" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
-      <c r="P206" s="1"/>
+      <c r="P206" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="207">
-      <c r="A207" s="4" t="s">
+      <c r="A207" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B207" s="4" t="s">
+      <c r="B207" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C207" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D207" s="4" t="s">
+      <c r="C207" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D207" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E207" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="F207" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G207" s="4" t="n">
+      <c r="E207" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="F207" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G207" s="3" t="n">
         <v>12</v>
       </c>
       <c r="H207" s="1"/>
-      <c r="I207" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J207" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K207" s="4" t="n">
+      <c r="I207" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J207" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K207" s="3" t="n">
         <v>10</v>
       </c>
       <c r="L207" s="1"/>
-      <c r="M207" s="4" t="s">
+      <c r="M207" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
-      <c r="P207" s="1"/>
+      <c r="P207" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="208">
-      <c r="A208" s="4" t="s">
+      <c r="A208" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B208" s="4" t="s">
+      <c r="B208" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C208" s="4" t="s">
+      <c r="C208" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D208" s="4" t="s">
+      <c r="D208" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E208" s="4" t="n">
+      <c r="E208" s="3" t="n">
         <v>75</v>
       </c>
-      <c r="F208" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G208" s="4" t="n">
+      <c r="F208" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G208" s="3" t="n">
         <v>12</v>
       </c>
       <c r="H208" s="1"/>
-      <c r="I208" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J208" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K208" s="4" t="n">
+      <c r="I208" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J208" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K208" s="3" t="n">
         <v>10</v>
       </c>
       <c r="L208" s="1"/>
-      <c r="M208" s="4" t="s">
+      <c r="M208" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
-      <c r="P208" s="1"/>
+      <c r="P208" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="209">
-      <c r="A209" s="4" t="s">
+      <c r="A209" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B209" s="4" t="s">
+      <c r="B209" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C209" s="4" t="s">
+      <c r="C209" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D209" s="4" t="s">
+      <c r="D209" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E209" s="4" t="n">
+      <c r="E209" s="3" t="n">
         <v>75</v>
       </c>
-      <c r="F209" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G209" s="4" t="n">
+      <c r="F209" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G209" s="3" t="n">
         <v>10</v>
       </c>
       <c r="H209" s="1"/>
-      <c r="I209" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J209" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K209" s="4" t="n">
+      <c r="I209" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J209" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K209" s="3" t="n">
         <v>8</v>
       </c>
       <c r="L209" s="1"/>
-      <c r="M209" s="4" t="s">
+      <c r="M209" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
-      <c r="P209" s="1"/>
+      <c r="P209" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="210">
-      <c r="A210" s="4" t="s">
+      <c r="A210" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B210" s="4" t="s">
+      <c r="B210" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C210" s="4" t="s">
+      <c r="C210" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D210" s="4" t="s">
+      <c r="D210" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E210" s="4" t="n">
+      <c r="E210" s="3" t="n">
         <v>75</v>
       </c>
-      <c r="F210" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G210" s="4" t="n">
+      <c r="F210" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G210" s="3" t="n">
         <v>16</v>
       </c>
       <c r="H210" s="1"/>
-      <c r="I210" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J210" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K210" s="4" t="n">
+      <c r="I210" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J210" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K210" s="3" t="n">
         <v>12</v>
       </c>
       <c r="L210" s="1"/>
-      <c r="M210" s="4" t="s">
+      <c r="M210" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
-      <c r="P210" s="1"/>
+      <c r="P210" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="211">
-      <c r="A211" s="4" t="s">
+      <c r="A211" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B211" s="4" t="s">
+      <c r="B211" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C211" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D211" s="4" t="s">
+      <c r="C211" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D211" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E211" s="4" t="n">
+      <c r="E211" s="3" t="n">
         <v>75</v>
       </c>
-      <c r="F211" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G211" s="4" t="n">
+      <c r="F211" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G211" s="3" t="n">
         <v>14</v>
       </c>
       <c r="H211" s="1"/>
-      <c r="I211" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J211" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K211" s="4" t="n">
+      <c r="I211" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J211" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K211" s="3" t="n">
         <v>10</v>
       </c>
       <c r="L211" s="1"/>
-      <c r="M211" s="4" t="s">
+      <c r="M211" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
-      <c r="P211" s="1"/>
+      <c r="P211" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="212">
-      <c r="A212" s="4" t="s">
+      <c r="A212" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B212" s="4" t="s">
+      <c r="B212" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C212" s="4" t="s">
+      <c r="C212" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D212" s="4" t="s">
+      <c r="D212" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E212" s="4" t="n">
+      <c r="E212" s="3" t="n">
         <v>75</v>
       </c>
-      <c r="F212" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G212" s="4" t="n">
+      <c r="F212" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G212" s="3" t="n">
         <v>18</v>
       </c>
       <c r="H212" s="1"/>
-      <c r="I212" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J212" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K212" s="4" t="n">
+      <c r="I212" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J212" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K212" s="3" t="n">
         <v>14</v>
       </c>
       <c r="L212" s="1"/>
-      <c r="M212" s="4" t="s">
+      <c r="M212" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
-      <c r="P212" s="1"/>
+      <c r="P212" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="213">
-      <c r="A213" s="4" t="s">
+      <c r="A213" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B213" s="4" t="s">
+      <c r="B213" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C213" s="4" t="s">
+      <c r="C213" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D213" s="4" t="s">
+      <c r="D213" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E213" s="4" t="n">
+      <c r="E213" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="F213" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G213" s="4" t="n">
+      <c r="F213" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G213" s="3" t="n">
         <v>15</v>
       </c>
       <c r="H213" s="1"/>
-      <c r="I213" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J213" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K213" s="4" t="n">
+      <c r="I213" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J213" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K213" s="3" t="n">
         <v>12</v>
       </c>
       <c r="L213" s="1"/>
-      <c r="M213" s="4" t="s">
+      <c r="M213" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
-      <c r="P213" s="1"/>
+      <c r="P213" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="214">
-      <c r="A214" s="4" t="s">
+      <c r="A214" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B214" s="4" t="s">
+      <c r="B214" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C214" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D214" s="4" t="s">
+      <c r="C214" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D214" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E214" s="4" t="n">
+      <c r="E214" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="F214" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G214" s="4" t="n">
+      <c r="F214" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G214" s="3" t="n">
         <v>13</v>
       </c>
       <c r="H214" s="1"/>
-      <c r="I214" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J214" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K214" s="4" t="n">
+      <c r="I214" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J214" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K214" s="3" t="n">
         <v>10</v>
       </c>
       <c r="L214" s="1"/>
-      <c r="M214" s="4" t="s">
+      <c r="M214" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
-      <c r="P214" s="1"/>
+      <c r="P214" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="215">
-      <c r="A215" s="4" t="s">
+      <c r="A215" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B215" s="4" t="s">
+      <c r="B215" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C215" s="4" t="s">
+      <c r="C215" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D215" s="4" t="s">
+      <c r="D215" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E215" s="4" t="n">
+      <c r="E215" s="3" t="n">
         <v>69</v>
       </c>
-      <c r="F215" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G215" s="4" t="n">
+      <c r="F215" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G215" s="3" t="n">
         <v>20</v>
       </c>
       <c r="H215" s="1"/>
-      <c r="I215" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J215" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K215" s="4" t="n">
+      <c r="I215" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J215" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K215" s="3" t="n">
         <v>16</v>
       </c>
       <c r="L215" s="1"/>
-      <c r="M215" s="4" t="s">
+      <c r="M215" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
-      <c r="P215" s="1"/>
+      <c r="P215" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="216">
-      <c r="A216" s="4" t="s">
+      <c r="A216" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B216" s="4" t="s">
+      <c r="B216" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C216" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D216" s="4" t="s">
+      <c r="C216" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D216" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E216" s="4" t="n">
+      <c r="E216" s="3" t="n">
         <v>69</v>
       </c>
-      <c r="F216" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G216" s="4" t="n">
+      <c r="F216" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G216" s="3" t="n">
         <v>18</v>
       </c>
       <c r="H216" s="1"/>
-      <c r="I216" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J216" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K216" s="4" t="n">
+      <c r="I216" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J216" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K216" s="3" t="n">
         <v>14</v>
       </c>
       <c r="L216" s="1"/>
-      <c r="M216" s="4" t="s">
+      <c r="M216" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
-      <c r="P216" s="1"/>
+      <c r="P216" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="217">
-      <c r="A217" s="4" t="s">
+      <c r="A217" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B217" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C217" s="4" t="s">
+      <c r="B217" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C217" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D217" s="4" t="s">
+      <c r="D217" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E217" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="F217" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G217" s="4" t="n">
+      <c r="E217" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="F217" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G217" s="3" t="n">
         <v>17</v>
       </c>
       <c r="H217" s="1"/>
-      <c r="I217" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J217" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K217" s="4" t="n">
+      <c r="I217" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J217" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K217" s="3" t="n">
         <v>16</v>
       </c>
       <c r="L217" s="1"/>
-      <c r="M217" s="4" t="s">
+      <c r="M217" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
-      <c r="P217" s="1"/>
+      <c r="P217" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="218">
-      <c r="A218" s="4" t="s">
+      <c r="A218" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B218" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C218" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D218" s="4" t="s">
+      <c r="B218" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D218" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E218" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="F218" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G218" s="4" t="n">
+      <c r="E218" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="F218" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G218" s="3" t="n">
         <v>15</v>
       </c>
       <c r="H218" s="1"/>
-      <c r="I218" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J218" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K218" s="4" t="n">
+      <c r="I218" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J218" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K218" s="3" t="n">
         <v>14</v>
       </c>
       <c r="L218" s="1"/>
-      <c r="M218" s="4" t="s">
+      <c r="M218" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
-      <c r="P218" s="1"/>
+      <c r="P218" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="219">
-      <c r="A219" s="4" t="s">
+      <c r="A219" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B219" s="4" t="s">
+      <c r="B219" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C219" s="4" t="s">
+      <c r="C219" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D219" s="4" t="s">
+      <c r="D219" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E219" s="4" t="n">
+      <c r="E219" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="F219" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G219" s="4" t="n">
+      <c r="F219" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G219" s="3" t="n">
         <v>16</v>
       </c>
       <c r="H219" s="1"/>
-      <c r="I219" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J219" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K219" s="4" t="n">
+      <c r="I219" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J219" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K219" s="3" t="n">
         <v>14</v>
       </c>
       <c r="L219" s="1"/>
-      <c r="M219" s="4" t="s">
+      <c r="M219" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
-      <c r="P219" s="1"/>
+      <c r="P219" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="220">
-      <c r="A220" s="4" t="s">
+      <c r="A220" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B220" s="4" t="s">
+      <c r="B220" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C220" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D220" s="4" t="s">
+      <c r="C220" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D220" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E220" s="4" t="n">
+      <c r="E220" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="F220" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G220" s="4" t="n">
+      <c r="F220" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G220" s="3" t="n">
         <v>14</v>
       </c>
       <c r="H220" s="1"/>
-      <c r="I220" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J220" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K220" s="4" t="n">
+      <c r="I220" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J220" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K220" s="3" t="n">
         <v>12</v>
       </c>
       <c r="L220" s="1"/>
-      <c r="M220" s="4" t="s">
+      <c r="M220" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
-      <c r="P220" s="1"/>
+      <c r="P220" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="221">
-      <c r="A221" s="4" t="s">
+      <c r="A221" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B221" s="4" t="s">
+      <c r="B221" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C221" s="4" t="s">
+      <c r="C221" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D221" s="4" t="s">
+      <c r="D221" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E221" s="4" t="n">
+      <c r="E221" s="3" t="n">
         <v>185</v>
       </c>
-      <c r="F221" s="4" t="n">
+      <c r="F221" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="G221" s="4" t="n">
+      <c r="G221" s="3" t="n">
         <v>22</v>
       </c>
       <c r="H221" s="1"/>
-      <c r="I221" s="4" t="n">
+      <c r="I221" s="3" t="n">
         <v>150</v>
       </c>
-      <c r="J221" s="4" t="n">
+      <c r="J221" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="K221" s="4" t="n">
+      <c r="K221" s="3" t="n">
         <v>18</v>
       </c>
       <c r="L221" s="1"/>
-      <c r="M221" s="4" t="s">
+      <c r="M221" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
-      <c r="P221" s="1"/>
+      <c r="P221" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="222">
-      <c r="A222" s="4" t="s">
+      <c r="A222" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B222" s="4" t="s">
+      <c r="B222" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C222" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D222" s="4" t="s">
+      <c r="C222" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D222" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E222" s="4" t="n">
+      <c r="E222" s="3" t="n">
         <v>185</v>
       </c>
-      <c r="F222" s="4" t="n">
+      <c r="F222" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="G222" s="4" t="n">
+      <c r="G222" s="3" t="n">
         <v>18</v>
       </c>
       <c r="H222" s="1"/>
-      <c r="I222" s="4" t="n">
+      <c r="I222" s="3" t="n">
         <v>150</v>
       </c>
-      <c r="J222" s="4" t="n">
+      <c r="J222" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="K222" s="4" t="n">
+      <c r="K222" s="3" t="n">
         <v>15</v>
       </c>
       <c r="L222" s="1"/>
-      <c r="M222" s="4" t="s">
+      <c r="M222" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
-      <c r="P222" s="1"/>
+      <c r="P222" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="223">
-      <c r="A223" s="4" t="s">
+      <c r="A223" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B223" s="4" t="s">
+      <c r="B223" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C223" s="4" t="s">
+      <c r="C223" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D223" s="4" t="s">
+      <c r="D223" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E223" s="4" t="n">
+      <c r="E223" s="3" t="n">
         <v>250</v>
       </c>
-      <c r="F223" s="4" t="n">
+      <c r="F223" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="G223" s="4" t="n">
+      <c r="G223" s="3" t="n">
         <v>26</v>
       </c>
       <c r="H223" s="1"/>
-      <c r="I223" s="4" t="n">
+      <c r="I223" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="J223" s="4" t="n">
+      <c r="J223" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="K223" s="4" t="n">
+      <c r="K223" s="3" t="n">
         <v>21</v>
       </c>
       <c r="L223" s="1"/>
-      <c r="M223" s="4" t="s">
+      <c r="M223" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
-      <c r="P223" s="1"/>
+      <c r="P223" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="224">
-      <c r="A224" s="4" t="s">
+      <c r="A224" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B224" s="4" t="s">
+      <c r="B224" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C224" s="4" t="s">
+      <c r="C224" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D224" s="4" t="s">
+      <c r="D224" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E224" s="4" t="n">
+      <c r="E224" s="3" t="n">
         <v>99</v>
       </c>
-      <c r="F224" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G224" s="4" t="n">
+      <c r="F224" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G224" s="3" t="n">
         <v>17</v>
       </c>
       <c r="H224" s="1"/>
-      <c r="I224" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J224" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K224" s="4" t="n">
+      <c r="I224" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J224" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K224" s="3" t="n">
         <v>16</v>
       </c>
       <c r="L224" s="1"/>
-      <c r="M224" s="4" t="s">
+      <c r="M224" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
-      <c r="P224" s="1"/>
+      <c r="P224" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="225">
-      <c r="A225" s="4" t="s">
+      <c r="A225" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B225" s="4" t="s">
+      <c r="B225" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C225" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D225" s="4" t="s">
+      <c r="C225" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D225" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E225" s="4" t="n">
+      <c r="E225" s="3" t="n">
         <v>99</v>
       </c>
-      <c r="F225" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G225" s="4" t="n">
+      <c r="F225" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G225" s="3" t="n">
         <v>15</v>
       </c>
       <c r="H225" s="1"/>
-      <c r="I225" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J225" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K225" s="4" t="n">
+      <c r="I225" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J225" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K225" s="3" t="n">
         <v>14</v>
       </c>
       <c r="L225" s="1"/>
-      <c r="M225" s="4" t="s">
+      <c r="M225" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
-      <c r="P225" s="1"/>
+      <c r="P225" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="226">
-      <c r="A226" s="4" t="s">
+      <c r="A226" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B226" s="4" t="s">
+      <c r="B226" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C226" s="4" t="s">
+      <c r="C226" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D226" s="4" t="s">
+      <c r="D226" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E226" s="4" t="n">
+      <c r="E226" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="F226" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G226" s="4" t="n">
+      <c r="F226" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G226" s="3" t="n">
         <v>18</v>
       </c>
       <c r="H226" s="1"/>
-      <c r="I226" s="4" t="n">
+      <c r="I226" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="J226" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K226" s="4" t="n">
+      <c r="J226" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K226" s="3" t="n">
         <v>18</v>
       </c>
       <c r="L226" s="1"/>
-      <c r="M226" s="4" t="s">
+      <c r="M226" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
-      <c r="P226" s="1"/>
+      <c r="P226" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="227">
-      <c r="A227" s="4" t="s">
+      <c r="A227" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B227" s="4" t="s">
+      <c r="B227" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C227" s="4" t="s">
+      <c r="C227" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D227" s="4" t="s">
+      <c r="D227" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E227" s="4" t="n">
+      <c r="E227" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="F227" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G227" s="4" t="n">
+      <c r="F227" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G227" s="3" t="n">
         <v>20</v>
       </c>
       <c r="H227" s="1"/>
-      <c r="I227" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J227" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K227" s="4" t="n">
+      <c r="I227" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J227" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K227" s="3" t="n">
         <v>16</v>
       </c>
       <c r="L227" s="1"/>
-      <c r="M227" s="4" t="s">
+      <c r="M227" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
-      <c r="P227" s="1"/>
+      <c r="P227" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="228">
-      <c r="A228" s="4" t="s">
+      <c r="A228" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B228" s="4" t="s">
+      <c r="B228" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C228" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D228" s="4" t="s">
+      <c r="C228" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D228" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E228" s="4" t="n">
+      <c r="E228" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="F228" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G228" s="4" t="n">
+      <c r="F228" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G228" s="3" t="n">
         <v>18</v>
       </c>
       <c r="H228" s="1"/>
-      <c r="I228" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J228" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K228" s="4" t="n">
+      <c r="I228" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J228" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K228" s="3" t="n">
         <v>14</v>
       </c>
       <c r="L228" s="1"/>
-      <c r="M228" s="4" t="s">
+      <c r="M228" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
-      <c r="P228" s="1"/>
+      <c r="P228" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="229">
-      <c r="A229" s="4" t="s">
+      <c r="A229" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B229" s="4" t="s">
+      <c r="B229" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C229" s="4" t="s">
+      <c r="C229" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D229" s="4" t="s">
+      <c r="D229" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E229" s="4" t="n">
+      <c r="E229" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="F229" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G229" s="4" t="n">
+      <c r="F229" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G229" s="3" t="n">
         <v>20</v>
       </c>
       <c r="H229" s="1"/>
-      <c r="I229" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J229" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K229" s="4" t="n">
+      <c r="I229" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J229" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K229" s="3" t="n">
         <v>16</v>
       </c>
       <c r="L229" s="1"/>
-      <c r="M229" s="4" t="s">
+      <c r="M229" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
-      <c r="P229" s="1"/>
+      <c r="P229" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="230">
-      <c r="A230" s="4" t="s">
+      <c r="A230" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B230" s="4" t="s">
+      <c r="B230" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C230" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D230" s="4" t="s">
+      <c r="C230" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D230" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E230" s="4" t="n">
+      <c r="E230" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="F230" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G230" s="4" t="n">
+      <c r="F230" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G230" s="3" t="n">
         <v>18</v>
       </c>
       <c r="H230" s="1"/>
-      <c r="I230" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J230" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K230" s="4" t="n">
+      <c r="I230" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J230" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K230" s="3" t="n">
         <v>14</v>
       </c>
       <c r="L230" s="1"/>
-      <c r="M230" s="4" t="s">
+      <c r="M230" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
-      <c r="P230" s="1"/>
+      <c r="P230" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="231">
-      <c r="A231" s="4" t="s">
+      <c r="A231" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B231" s="4" t="s">
+      <c r="B231" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C231" s="4" t="s">
+      <c r="C231" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D231" s="4" t="s">
+      <c r="D231" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E231" s="4" t="n">
+      <c r="E231" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="F231" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G231" s="4" t="n">
+      <c r="F231" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G231" s="3" t="n">
         <v>20</v>
       </c>
       <c r="H231" s="1"/>
-      <c r="I231" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J231" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K231" s="4" t="n">
+      <c r="I231" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J231" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K231" s="3" t="n">
         <v>16</v>
       </c>
       <c r="L231" s="1"/>
-      <c r="M231" s="4" t="s">
+      <c r="M231" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
-      <c r="P231" s="1"/>
+      <c r="P231" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="232">
-      <c r="A232" s="4" t="s">
+      <c r="A232" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B232" s="4" t="s">
+      <c r="B232" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C232" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D232" s="4" t="s">
+      <c r="C232" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D232" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E232" s="4" t="n">
+      <c r="E232" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="F232" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G232" s="4" t="n">
+      <c r="F232" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G232" s="3" t="n">
         <v>18</v>
       </c>
       <c r="H232" s="1"/>
-      <c r="I232" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J232" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K232" s="4" t="n">
+      <c r="I232" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J232" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K232" s="3" t="n">
         <v>14</v>
       </c>
       <c r="L232" s="1"/>
-      <c r="M232" s="4" t="s">
+      <c r="M232" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
-      <c r="P232" s="1"/>
+      <c r="P232" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="233">
-      <c r="A233" s="4" t="s">
+      <c r="A233" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B233" s="4" t="s">
+      <c r="B233" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C233" s="4" t="s">
+      <c r="C233" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D233" s="4" t="s">
+      <c r="D233" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E233" s="4" t="n">
+      <c r="E233" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="F233" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G233" s="4" t="n">
+      <c r="F233" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G233" s="3" t="n">
         <v>16</v>
       </c>
       <c r="H233" s="1"/>
-      <c r="I233" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J233" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K233" s="4" t="n">
+      <c r="I233" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J233" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K233" s="3" t="n">
         <v>13</v>
       </c>
       <c r="L233" s="1"/>
-      <c r="M233" s="4" t="s">
+      <c r="M233" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
-      <c r="P233" s="1"/>
+      <c r="P233" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="234">
-      <c r="A234" s="4" t="s">
+      <c r="A234" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B234" s="4" t="s">
+      <c r="B234" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C234" s="4" t="s">
+      <c r="C234" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D234" s="4" t="s">
+      <c r="D234" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E234" s="4" t="n">
+      <c r="E234" s="3" t="n">
         <v>69</v>
       </c>
-      <c r="F234" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G234" s="4" t="n">
+      <c r="F234" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G234" s="3" t="n">
         <v>18</v>
       </c>
       <c r="H234" s="1"/>
-      <c r="I234" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J234" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K234" s="4" t="n">
+      <c r="I234" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J234" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K234" s="3" t="n">
         <v>14</v>
       </c>
       <c r="L234" s="1"/>
-      <c r="M234" s="4" t="s">
+      <c r="M234" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
-      <c r="P234" s="1"/>
+      <c r="P234" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="235">
-      <c r="A235" s="4" t="s">
+      <c r="A235" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B235" s="4" t="s">
+      <c r="B235" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C235" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D235" s="4" t="s">
+      <c r="C235" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D235" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E235" s="4" t="n">
+      <c r="E235" s="3" t="n">
         <v>69</v>
       </c>
-      <c r="F235" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G235" s="4" t="n">
+      <c r="F235" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G235" s="3" t="n">
         <v>15</v>
       </c>
       <c r="H235" s="1"/>
-      <c r="I235" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J235" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K235" s="4" t="n">
+      <c r="I235" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J235" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K235" s="3" t="n">
         <v>12</v>
       </c>
       <c r="L235" s="1"/>
-      <c r="M235" s="4" t="s">
+      <c r="M235" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
-      <c r="P235" s="1"/>
+      <c r="P235" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="236">
-      <c r="A236" s="4" t="s">
+      <c r="A236" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B236" s="4" t="s">
+      <c r="B236" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C236" s="4" t="s">
+      <c r="C236" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D236" s="4" t="s">
+      <c r="D236" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E236" s="4" t="n">
+      <c r="E236" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="F236" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G236" s="4" t="n">
+      <c r="F236" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G236" s="3" t="n">
         <v>18</v>
       </c>
       <c r="H236" s="1"/>
-      <c r="I236" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J236" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K236" s="4" t="n">
+      <c r="I236" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J236" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K236" s="3" t="n">
         <v>16</v>
       </c>
       <c r="L236" s="1"/>
-      <c r="M236" s="4" t="s">
+      <c r="M236" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
-      <c r="P236" s="1"/>
+      <c r="P236" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="237">
-      <c r="A237" s="4" t="s">
+      <c r="A237" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B237" s="4" t="s">
+      <c r="B237" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C237" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D237" s="4" t="s">
+      <c r="C237" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D237" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E237" s="4" t="n">
+      <c r="E237" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="F237" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G237" s="4" t="n">
+      <c r="F237" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G237" s="3" t="n">
         <v>16</v>
       </c>
       <c r="H237" s="1"/>
-      <c r="I237" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J237" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K237" s="4" t="n">
+      <c r="I237" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J237" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K237" s="3" t="n">
         <v>14</v>
       </c>
       <c r="L237" s="1"/>
-      <c r="M237" s="4" t="s">
+      <c r="M237" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
-      <c r="P237" s="1"/>
+      <c r="P237" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="238">
-      <c r="A238" s="4" t="s">
+      <c r="A238" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B238" s="4" t="s">
+      <c r="B238" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C238" s="4" t="s">
+      <c r="C238" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D238" s="4" t="s">
+      <c r="D238" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E238" s="4" t="n">
+      <c r="E238" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="F238" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G238" s="4" t="n">
+      <c r="F238" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G238" s="3" t="n">
         <v>17</v>
       </c>
       <c r="H238" s="1"/>
-      <c r="I238" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J238" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K238" s="4" t="n">
+      <c r="I238" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J238" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K238" s="3" t="n">
         <v>14</v>
       </c>
       <c r="L238" s="1"/>
-      <c r="M238" s="4" t="s">
+      <c r="M238" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
-      <c r="P238" s="1"/>
+      <c r="P238" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="239">
-      <c r="A239" s="4" t="s">
+      <c r="A239" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B239" s="4" t="s">
+      <c r="B239" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C239" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D239" s="4" t="s">
+      <c r="C239" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D239" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E239" s="4" t="n">
+      <c r="E239" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="F239" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G239" s="4" t="n">
+      <c r="F239" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G239" s="3" t="n">
         <v>15</v>
       </c>
       <c r="H239" s="1"/>
-      <c r="I239" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J239" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K239" s="4" t="n">
+      <c r="I239" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J239" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K239" s="3" t="n">
         <v>12</v>
       </c>
       <c r="L239" s="1"/>
-      <c r="M239" s="4" t="s">
+      <c r="M239" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
-      <c r="P239" s="1"/>
+      <c r="P239" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="240">
-      <c r="A240" s="4" t="s">
+      <c r="A240" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B240" s="4" t="s">
+      <c r="B240" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C240" s="4" t="s">
+      <c r="C240" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D240" s="4" t="s">
+      <c r="D240" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E240" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="F240" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G240" s="4" t="n">
+      <c r="E240" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="F240" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G240" s="3" t="n">
         <v>16</v>
       </c>
       <c r="H240" s="1"/>
-      <c r="I240" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J240" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K240" s="4" t="n">
+      <c r="I240" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J240" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K240" s="3" t="n">
         <v>14</v>
       </c>
       <c r="L240" s="1"/>
-      <c r="M240" s="4" t="s">
+      <c r="M240" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
-      <c r="P240" s="1"/>
+      <c r="P240" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="241">
-      <c r="A241" s="4" t="s">
+      <c r="A241" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B241" s="4" t="s">
+      <c r="B241" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C241" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D241" s="4" t="s">
+      <c r="C241" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D241" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E241" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="F241" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G241" s="4" t="n">
+      <c r="E241" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="F241" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G241" s="3" t="n">
         <v>14</v>
       </c>
       <c r="H241" s="1"/>
-      <c r="I241" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J241" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K241" s="4" t="n">
+      <c r="I241" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J241" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K241" s="3" t="n">
         <v>12</v>
       </c>
       <c r="L241" s="1"/>
-      <c r="M241" s="4" t="s">
+      <c r="M241" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
-      <c r="P241" s="1"/>
+      <c r="P241" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="242">
-      <c r="A242" s="4" t="s">
+      <c r="A242" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B242" s="4" t="s">
+      <c r="B242" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C242" s="4" t="s">
+      <c r="C242" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D242" s="4" t="s">
+      <c r="D242" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E242" s="4" t="n">
+      <c r="E242" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="F242" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G242" s="4" t="n">
+      <c r="F242" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G242" s="3" t="n">
         <v>16</v>
       </c>
       <c r="H242" s="1"/>
-      <c r="I242" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J242" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K242" s="4" t="n">
+      <c r="I242" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J242" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K242" s="3" t="n">
         <v>14</v>
       </c>
       <c r="L242" s="1"/>
-      <c r="M242" s="4" t="s">
+      <c r="M242" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
-      <c r="P242" s="1"/>
+      <c r="P242" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="243">
-      <c r="A243" s="4" t="s">
+      <c r="A243" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B243" s="4" t="s">
+      <c r="B243" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C243" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D243" s="4" t="s">
+      <c r="C243" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D243" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E243" s="4" t="n">
+      <c r="E243" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="F243" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G243" s="4" t="n">
+      <c r="F243" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G243" s="3" t="n">
         <v>14</v>
       </c>
       <c r="H243" s="1"/>
-      <c r="I243" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J243" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K243" s="4" t="n">
+      <c r="I243" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J243" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K243" s="3" t="n">
         <v>12</v>
       </c>
       <c r="L243" s="1"/>
-      <c r="M243" s="4" t="s">
+      <c r="M243" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
-      <c r="P243" s="1"/>
+      <c r="P243" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="244">
-      <c r="A244" s="4" t="s">
+      <c r="A244" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B244" s="4" t="s">
+      <c r="B244" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C244" s="4" t="s">
+      <c r="C244" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D244" s="4" t="s">
+      <c r="D244" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E244" s="4" t="n">
+      <c r="E244" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="F244" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G244" s="4" t="n">
+      <c r="F244" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G244" s="3" t="n">
         <v>16</v>
       </c>
       <c r="H244" s="1"/>
-      <c r="I244" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J244" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K244" s="4" t="n">
+      <c r="I244" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J244" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K244" s="3" t="n">
         <v>14</v>
       </c>
       <c r="L244" s="1"/>
-      <c r="M244" s="4" t="s">
+      <c r="M244" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
-      <c r="P244" s="1"/>
+      <c r="P244" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="245">
-      <c r="A245" s="4" t="s">
+      <c r="A245" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B245" s="4" t="s">
+      <c r="B245" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C245" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D245" s="4" t="s">
+      <c r="C245" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D245" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E245" s="4" t="n">
+      <c r="E245" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="F245" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G245" s="4" t="n">
+      <c r="F245" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G245" s="3" t="n">
         <v>14</v>
       </c>
       <c r="H245" s="1"/>
-      <c r="I245" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J245" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K245" s="4" t="n">
+      <c r="I245" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J245" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K245" s="3" t="n">
         <v>12</v>
       </c>
       <c r="L245" s="1"/>
-      <c r="M245" s="4" t="s">
+      <c r="M245" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
-      <c r="P245" s="1"/>
+      <c r="P245" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="246">
-      <c r="A246" s="4" t="s">
+      <c r="A246" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B246" s="4" t="s">
+      <c r="B246" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C246" s="4" t="s">
+      <c r="C246" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D246" s="4" t="s">
+      <c r="D246" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E246" s="4" t="n">
+      <c r="E246" s="3" t="n">
         <v>99</v>
       </c>
-      <c r="F246" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G246" s="4" t="n">
+      <c r="F246" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G246" s="3" t="n">
         <v>17</v>
       </c>
       <c r="H246" s="1"/>
-      <c r="I246" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J246" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K246" s="4" t="n">
+      <c r="I246" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J246" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K246" s="3" t="n">
         <v>14</v>
       </c>
       <c r="L246" s="1"/>
-      <c r="M246" s="4" t="s">
+      <c r="M246" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
-      <c r="P246" s="1"/>
+      <c r="P246" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="247">
-      <c r="A247" s="4" t="s">
+      <c r="A247" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B247" s="4" t="s">
+      <c r="B247" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C247" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D247" s="4" t="s">
+      <c r="C247" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D247" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E247" s="4" t="n">
+      <c r="E247" s="3" t="n">
         <v>99</v>
       </c>
-      <c r="F247" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G247" s="4" t="n">
+      <c r="F247" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G247" s="3" t="n">
         <v>15</v>
       </c>
       <c r="H247" s="1"/>
-      <c r="I247" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J247" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K247" s="4" t="n">
+      <c r="I247" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J247" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K247" s="3" t="n">
         <v>12</v>
       </c>
       <c r="L247" s="1"/>
-      <c r="M247" s="4" t="s">
+      <c r="M247" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
-      <c r="P247" s="1"/>
+      <c r="P247" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="248">
-      <c r="A248" s="4" t="s">
+      <c r="A248" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B248" s="4" t="s">
+      <c r="B248" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C248" s="4" t="s">
+      <c r="C248" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D248" s="4" t="s">
+      <c r="D248" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E248" s="4" t="n">
+      <c r="E248" s="3" t="n">
         <v>99</v>
       </c>
-      <c r="F248" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G248" s="4" t="n">
+      <c r="F248" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G248" s="3" t="n">
         <v>17</v>
       </c>
       <c r="H248" s="1"/>
-      <c r="I248" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J248" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K248" s="4" t="n">
+      <c r="I248" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J248" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K248" s="3" t="n">
         <v>14</v>
       </c>
       <c r="L248" s="1"/>
-      <c r="M248" s="4" t="s">
+      <c r="M248" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
-      <c r="P248" s="1"/>
+      <c r="P248" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="249">
-      <c r="A249" s="4" t="s">
+      <c r="A249" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B249" s="4" t="s">
+      <c r="B249" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C249" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D249" s="4" t="s">
+      <c r="C249" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D249" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E249" s="4" t="n">
+      <c r="E249" s="3" t="n">
         <v>99</v>
       </c>
-      <c r="F249" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G249" s="4" t="n">
+      <c r="F249" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G249" s="3" t="n">
         <v>15</v>
       </c>
       <c r="H249" s="1"/>
-      <c r="I249" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J249" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K249" s="4" t="n">
+      <c r="I249" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J249" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K249" s="3" t="n">
         <v>12</v>
       </c>
       <c r="L249" s="1"/>
-      <c r="M249" s="4" t="s">
+      <c r="M249" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
-      <c r="P249" s="1"/>
+      <c r="P249" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="250">
-      <c r="A250" s="4" t="s">
+      <c r="A250" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B250" s="4" t="s">
+      <c r="B250" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C250" s="4" t="s">
+      <c r="C250" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D250" s="4" t="s">
+      <c r="D250" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E250" s="4" t="n">
+      <c r="E250" s="3" t="n">
         <v>86.25</v>
       </c>
-      <c r="F250" s="4" t="n">
+      <c r="F250" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="G250" s="4" t="n">
+      <c r="G250" s="3" t="n">
         <v>28.75</v>
       </c>
-      <c r="H250" s="4" t="s">
+      <c r="H250" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I250" s="4" t="n">
+      <c r="I250" s="3" t="n">
         <v>69</v>
       </c>
-      <c r="J250" s="4" t="n">
+      <c r="J250" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="K250" s="4" t="n">
+      <c r="K250" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="L250" s="4" t="s">
+      <c r="L250" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="M250" s="4" t="s">
+      <c r="M250" s="3" t="s">
         <v>122</v>
       </c>
       <c r="N250" s="1"/>
@@ -10941,43 +11123,43 @@
       <c r="P250" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="251">
-      <c r="A251" s="4" t="s">
+      <c r="A251" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B251" s="4" t="s">
+      <c r="B251" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C251" s="4" t="s">
+      <c r="C251" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D251" s="4" t="s">
+      <c r="D251" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E251" s="4" t="n">
+      <c r="E251" s="3" t="n">
         <v>33.75</v>
       </c>
-      <c r="F251" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G251" s="4" t="n">
+      <c r="F251" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G251" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="H251" s="4" t="n">
+      <c r="H251" s="3" t="n">
         <v>2.5</v>
       </c>
-      <c r="I251" s="4" t="n">
+      <c r="I251" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="J251" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K251" s="4" t="n">
+      <c r="J251" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K251" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="L251" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="M251" s="4" t="s">
+      <c r="L251" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M251" s="3" t="s">
         <v>124</v>
       </c>
       <c r="N251" s="1"/>
@@ -10985,43 +11167,43 @@
       <c r="P251" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="252">
-      <c r="A252" s="4" t="s">
+      <c r="A252" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B252" s="4" t="s">
+      <c r="B252" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C252" s="4" t="s">
+      <c r="C252" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D252" s="4" t="s">
+      <c r="D252" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E252" s="4" t="n">
+      <c r="E252" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="F252" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G252" s="4" t="n">
+      <c r="F252" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G252" s="3" t="n">
         <v>26.25</v>
       </c>
-      <c r="H252" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" s="4" t="n">
+      <c r="H252" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I252" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="J252" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K252" s="4" t="n">
+      <c r="J252" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K252" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="L252" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" s="4" t="s">
+      <c r="L252" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" s="3" t="s">
         <v>122</v>
       </c>
       <c r="N252" s="1"/>
@@ -11029,43 +11211,43 @@
       <c r="P252" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="253">
-      <c r="A253" s="4" t="s">
+      <c r="A253" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B253" s="4" t="s">
+      <c r="B253" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C253" s="4" t="s">
+      <c r="C253" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D253" s="4" t="s">
+      <c r="D253" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E253" s="4" t="n">
+      <c r="E253" s="3" t="n">
         <v>88</v>
       </c>
-      <c r="F253" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G253" s="4" t="n">
+      <c r="F253" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G253" s="3" t="n">
         <v>21.45</v>
       </c>
-      <c r="H253" s="4" t="s">
+      <c r="H253" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="I253" s="4" t="n">
+      <c r="I253" s="3" t="n">
         <v>80</v>
       </c>
-      <c r="J253" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K253" s="4" t="n">
+      <c r="J253" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K253" s="3" t="n">
         <v>19.5</v>
       </c>
-      <c r="L253" s="4" t="s">
+      <c r="L253" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="M253" s="4" t="s">
+      <c r="M253" s="3" t="s">
         <v>127</v>
       </c>
       <c r="N253" s="1"/>
@@ -11082,7 +11264,7 @@
       <c r="C254" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D254" s="5" t="s">
+      <c r="D254" s="4" t="s">
         <v>123</v>
       </c>
       <c r="E254" s="2" t="n">
@@ -11109,7 +11291,7 @@
       <c r="L254" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="M254" s="5" t="s">
+      <c r="M254" s="4" t="s">
         <v>124</v>
       </c>
       <c r="N254" s="1"/>
@@ -11126,7 +11308,7 @@
       <c r="C255" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D255" s="5" t="s">
+      <c r="D255" s="4" t="s">
         <v>125</v>
       </c>
       <c r="E255" s="2" t="n">
@@ -11153,7 +11335,7 @@
       <c r="L255" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="M255" s="5" t="s">
+      <c r="M255" s="4" t="s">
         <v>127</v>
       </c>
       <c r="N255" s="1"/>
@@ -11170,7 +11352,7 @@
       <c r="C256" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D256" s="5" t="s">
+      <c r="D256" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E256" s="2" t="n">
@@ -11197,7 +11379,7 @@
       <c r="L256" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="M256" s="5" t="s">
+      <c r="M256" s="4" t="s">
         <v>122</v>
       </c>
       <c r="N256" s="1"/>
@@ -11214,7 +11396,7 @@
       <c r="C257" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D257" s="5" t="s">
+      <c r="D257" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E257" s="2" t="n">
@@ -11241,7 +11423,7 @@
       <c r="L257" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M257" s="5" t="s">
+      <c r="M257" s="4" t="s">
         <v>122</v>
       </c>
       <c r="N257" s="1"/>
@@ -11258,7 +11440,7 @@
       <c r="C258" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D258" s="5" t="s">
+      <c r="D258" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E258" s="2" t="n">
@@ -11285,7 +11467,7 @@
       <c r="L258" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="M258" s="5" t="s">
+      <c r="M258" s="4" t="s">
         <v>122</v>
       </c>
       <c r="N258" s="1"/>
@@ -11302,7 +11484,7 @@
       <c r="C259" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D259" s="5" t="s">
+      <c r="D259" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E259" s="2" t="n">
@@ -11329,7 +11511,7 @@
       <c r="L259" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="M259" s="5" t="s">
+      <c r="M259" s="4" t="s">
         <v>122</v>
       </c>
       <c r="N259" s="1"/>
@@ -11346,7 +11528,7 @@
       <c r="C260" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D260" s="5" t="s">
+      <c r="D260" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E260" s="2" t="n">
@@ -11373,7 +11555,7 @@
       <c r="L260" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="M260" s="5" t="s">
+      <c r="M260" s="4" t="s">
         <v>122</v>
       </c>
       <c r="N260" s="1"/>
@@ -11390,7 +11572,7 @@
       <c r="C261" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D261" s="5" t="s">
+      <c r="D261" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E261" s="2" t="n">
@@ -11417,7 +11599,7 @@
       <c r="L261" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="M261" s="5" t="s">
+      <c r="M261" s="4" t="s">
         <v>122</v>
       </c>
       <c r="N261" s="1"/>
@@ -11434,7 +11616,7 @@
       <c r="C262" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D262" s="5" t="s">
+      <c r="D262" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E262" s="2" t="n">
@@ -11461,7 +11643,7 @@
       <c r="L262" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="M262" s="5" t="s">
+      <c r="M262" s="4" t="s">
         <v>122</v>
       </c>
       <c r="N262" s="1"/>
@@ -11478,7 +11660,7 @@
       <c r="C263" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D263" s="5" t="s">
+      <c r="D263" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E263" s="2" t="n">
@@ -11505,7 +11687,7 @@
       <c r="L263" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="M263" s="5" t="s">
+      <c r="M263" s="4" t="s">
         <v>122</v>
       </c>
       <c r="N263" s="1"/>
@@ -11522,7 +11704,7 @@
       <c r="C264" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D264" s="5" t="s">
+      <c r="D264" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E264" s="2" t="n">
@@ -11549,7 +11731,7 @@
       <c r="L264" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="M264" s="5" t="s">
+      <c r="M264" s="4" t="s">
         <v>122</v>
       </c>
       <c r="N264" s="1"/>
@@ -11566,7 +11748,7 @@
       <c r="C265" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D265" s="5" t="s">
+      <c r="D265" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E265" s="2" t="n">
@@ -11593,7 +11775,7 @@
       <c r="L265" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="M265" s="5" t="s">
+      <c r="M265" s="4" t="s">
         <v>122</v>
       </c>
       <c r="N265" s="1"/>
@@ -11610,7 +11792,7 @@
       <c r="C266" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D266" s="5" t="s">
+      <c r="D266" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E266" s="2" t="n">
@@ -11637,7 +11819,7 @@
       <c r="L266" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="M266" s="5" t="s">
+      <c r="M266" s="4" t="s">
         <v>122</v>
       </c>
       <c r="N266" s="1"/>
@@ -11654,7 +11836,7 @@
       <c r="C267" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D267" s="5" t="s">
+      <c r="D267" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E267" s="2" t="n">
@@ -11681,7 +11863,7 @@
       <c r="L267" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="M267" s="5" t="s">
+      <c r="M267" s="4" t="s">
         <v>122</v>
       </c>
       <c r="N267" s="1"/>
@@ -11698,7 +11880,7 @@
       <c r="C268" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D268" s="5" t="s">
+      <c r="D268" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E268" s="2" t="n">
@@ -11725,7 +11907,7 @@
       <c r="L268" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="M268" s="5" t="s">
+      <c r="M268" s="4" t="s">
         <v>122</v>
       </c>
       <c r="N268" s="1"/>
@@ -11742,7 +11924,7 @@
       <c r="C269" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D269" s="5" t="s">
+      <c r="D269" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E269" s="2" t="n">
@@ -11769,7 +11951,7 @@
       <c r="L269" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="M269" s="5" t="s">
+      <c r="M269" s="4" t="s">
         <v>122</v>
       </c>
       <c r="N269" s="1"/>
@@ -11786,7 +11968,7 @@
       <c r="C270" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D270" s="5" t="s">
+      <c r="D270" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E270" s="2" t="n">
@@ -11813,7 +11995,7 @@
       <c r="L270" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="M270" s="5" t="s">
+      <c r="M270" s="4" t="s">
         <v>122</v>
       </c>
       <c r="N270" s="1"/>
@@ -11830,7 +12012,7 @@
       <c r="C271" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D271" s="5" t="s">
+      <c r="D271" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E271" s="2" t="n">
@@ -11857,7 +12039,7 @@
       <c r="L271" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="M271" s="5" t="s">
+      <c r="M271" s="4" t="s">
         <v>122</v>
       </c>
       <c r="N271" s="1"/>
@@ -12082,7 +12264,7 @@
       <c r="O276" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="P276" s="6"/>
+      <c r="P276" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="277">
       <c r="A277" s="2" t="s">
